--- a/data/trans_bre/P19C04-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.5091236114734</v>
+        <v>-13.87839632611378</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.33376792632568</v>
+        <v>-14.10487443012066</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.98266354924271</v>
+        <v>-13.47456173614405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-19.50733378454415</v>
+        <v>-18.95345233321009</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4378878040927865</v>
+        <v>-0.4427856556010488</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.403564792312065</v>
+        <v>-0.4043966763213839</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4679062896710775</v>
+        <v>-0.4621392738000257</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5383093620306408</v>
+        <v>-0.5353913675437373</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.76079557424145</v>
+        <v>-3.001734970554172</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-5.108622188165512</v>
+        <v>-4.929630971954257</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-5.100788781661947</v>
+        <v>-5.115390166298615</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-9.105875795049769</v>
+        <v>-8.721170188815531</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1111855049771094</v>
+        <v>-0.1171089499288483</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1700570096891735</v>
+        <v>-0.1652471727307858</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.2166208725379879</v>
+        <v>-0.2123021457003149</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.3137645184961781</v>
+        <v>-0.3039252132138651</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-2.425522640772324</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-5.220650591359571</v>
+        <v>-5.220650591359568</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3288608013706007</v>
@@ -749,7 +749,7 @@
         <v>-0.1557533391253452</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2905315229615366</v>
+        <v>-0.2905315229615364</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-12.13909187742252</v>
+        <v>-11.8840817711331</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-12.21128948098066</v>
+        <v>-12.07139726878585</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.697492816930148</v>
+        <v>-6.042600804913289</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.472895428952167</v>
+        <v>-8.50800872096309</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4572476468617005</v>
+        <v>-0.4557476467137033</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4294973604271114</v>
+        <v>-0.4300399888429283</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3406735553078339</v>
+        <v>-0.3454256387338172</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.418406571980629</v>
+        <v>-0.418957039708205</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-3.926831365793964</v>
+        <v>-3.921700352440096</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-4.501948491487785</v>
+        <v>-4.102549614315812</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.698865433503833</v>
+        <v>1.425190008419705</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-2.31856541104478</v>
+        <v>-2.381888348655347</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1697722991805258</v>
+        <v>-0.176961251107916</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1836341102914422</v>
+        <v>-0.1731552250271025</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1295063412132087</v>
+        <v>0.1003403745466229</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1424294651647734</v>
+        <v>-0.1493999999139712</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-3.847403581357665</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.995684406668639</v>
+        <v>-2.99568440666864</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3676594076249702</v>
@@ -849,7 +849,7 @@
         <v>-0.275774367230576</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2269511191135114</v>
+        <v>-0.2269511191135115</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.355287338609349</v>
+        <v>-9.546455371085726</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.65809088886107</v>
+        <v>-10.75390628597359</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.375080338827138</v>
+        <v>-7.702209578799255</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.968489257484501</v>
+        <v>-5.894666792678615</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5094308559749574</v>
+        <v>-0.5124217912035095</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4729960632466129</v>
+        <v>-0.4709122706646955</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4739894685350463</v>
+        <v>-0.477171077676894</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3846843761979603</v>
+        <v>-0.39392646209831</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.594185371320126</v>
+        <v>-2.901566303288212</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.443355789877577</v>
+        <v>-3.325570331607044</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.0746888517140068</v>
+        <v>-0.1746929534062613</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.4446679467898869</v>
+        <v>-0.2254244412733278</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1816721588444231</v>
+        <v>-0.1887605583797106</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1723301808647172</v>
+        <v>-0.1737481092379564</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.0001571132303833978</v>
+        <v>-0.009360589064142836</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.03316956155050859</v>
+        <v>-0.02008223989244362</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.934242946705067</v>
+        <v>-6.297592675519395</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.983435170581416</v>
+        <v>-8.847650876023065</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.423013536841628</v>
+        <v>-9.633056082327633</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.386955351847373</v>
+        <v>-5.00820575297813</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4496466361666881</v>
+        <v>-0.4743677967205587</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5409179865895588</v>
+        <v>-0.5556908864744488</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5623186577748501</v>
+        <v>-0.5653990569121009</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4686577716934037</v>
+        <v>-0.455201900957977</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.070031239637709</v>
+        <v>3.358783510863097</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.008408579349689761</v>
+        <v>0.3396398001291404</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.8012559204877732</v>
+        <v>-0.6551729243961208</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.004721795693410929</v>
+        <v>-0.1471675598985761</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4829856664133649</v>
+        <v>0.4211016424862282</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.004057936493710174</v>
+        <v>0.03439723214576662</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.05813422482571676</v>
+        <v>-0.05501630898101396</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.005513495374035705</v>
+        <v>-0.008522904195482121</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-4.882519276685668</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-4.562495933869358</v>
+        <v>-4.562495933869363</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.274255710992082</v>
@@ -1049,7 +1049,7 @@
         <v>-0.2729133977286263</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2836241540099579</v>
+        <v>-0.2836241540099581</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.659002634049878</v>
+        <v>-7.607909747825621</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.652451076790205</v>
+        <v>-9.664118174438348</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.71592542260359</v>
+        <v>-6.962922471660887</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.079724797492323</v>
+        <v>-6.12084260273186</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3606579700955283</v>
+        <v>-0.3602495650740105</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3704336672578887</v>
+        <v>-0.3694200746523486</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3546651734620636</v>
+        <v>-0.3610355852852669</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3509248235845507</v>
+        <v>-0.3555033216292893</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.314646402994947</v>
+        <v>-3.345906736887874</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-5.154256235426495</v>
+        <v>-5.229821686439381</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.83029043702604</v>
+        <v>-3.029265241375999</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-2.952778353576592</v>
+        <v>-2.983016478012756</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1805134381626415</v>
+        <v>-0.1790908054647226</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.2214107706169181</v>
+        <v>-0.2194182893004139</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.1708385173531708</v>
+        <v>-0.1783135600042765</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1957690020573188</v>
+        <v>-0.2007497985482959</v>
       </c>
     </row>
     <row r="19">
